--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2710487.988724892</v>
+        <v>-2713127.414202361</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16334174.23636535</v>
+        <v>16334174.23636534</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>284.3185410431208</v>
+        <v>284.3185410431186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57.6554290829572</v>
+        <v>57.65542908295723</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>118.6913945753449</v>
+        <v>118.691394575345</v>
       </c>
       <c r="T2" t="n">
         <v>205.7436268604466</v>
@@ -756,7 +756,7 @@
         <v>91.75197580253082</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174646</v>
+        <v>16.37427717174647</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607535</v>
+        <v>97.34378597607537</v>
       </c>
       <c r="S4" t="n">
         <v>193.029256032545</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.0576312245501</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.09092032742885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079322</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.10514086429195</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200668</v>
+        <v>160.5958651236762</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428145</v>
+        <v>20.88994825141561</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740354</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892447</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596494</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833775</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012207</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541833</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972048</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308919</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652558</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652584</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.7699066636974</v>
+        <v>401.7699066636951</v>
       </c>
       <c r="C2" t="n">
         <v>114.5794611655958</v>
@@ -4325,55 +4325,55 @@
         <v>114.5794611655958</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739681</v>
+        <v>210.1777629739677</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579188</v>
+        <v>491.4767306579181</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840316</v>
+        <v>877.3547360840312</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296445</v>
+        <v>1338.387805296444</v>
       </c>
       <c r="N2" t="n">
-        <v>1811.494679942782</v>
+        <v>1811.494679942781</v>
       </c>
       <c r="O2" t="n">
-        <v>2244.90082469238</v>
+        <v>2244.900824692378</v>
       </c>
       <c r="P2" t="n">
-        <v>2580.301941171662</v>
+        <v>2580.30194117166</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928707</v>
+        <v>2784.001464928705</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554678</v>
+        <v>2817.082700554675</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.192403003824</v>
+        <v>2697.192403003822</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.370557690242</v>
+        <v>2489.370557690239</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.806379578396</v>
+        <v>2235.806379578393</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234825</v>
+        <v>1904.743492234822</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.974836964711</v>
+        <v>1551.974836964708</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.509078703631</v>
+        <v>1178.509078703629</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3697467278191</v>
+        <v>788.3697467278168</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>165.5600913588484</v>
       </c>
       <c r="H3" t="n">
-        <v>72.88132792194855</v>
+        <v>72.88132792194853</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="J3" t="n">
-        <v>129.1475396695374</v>
+        <v>129.1475396695373</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7392193355941</v>
+        <v>331.7392193355939</v>
       </c>
       <c r="L3" t="n">
-        <v>650.4712751678849</v>
+        <v>650.4712751678846</v>
       </c>
       <c r="M3" t="n">
         <v>1041.773418876591</v>
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34165401109355</v>
+        <v>204.2547475934867</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34165401109355</v>
+        <v>204.2547475934867</v>
       </c>
       <c r="D4" t="n">
-        <v>56.34165401109355</v>
+        <v>204.2547475934866</v>
       </c>
       <c r="E4" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="F4" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="G4" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="H4" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109355</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="J4" t="n">
-        <v>88.37025097505901</v>
+        <v>88.37025097505875</v>
       </c>
       <c r="K4" t="n">
-        <v>270.8399112966553</v>
+        <v>270.8399112966547</v>
       </c>
       <c r="L4" t="n">
-        <v>559.8646890059855</v>
+        <v>559.8646890059848</v>
       </c>
       <c r="M4" t="n">
-        <v>874.9899159308716</v>
+        <v>874.9899159308709</v>
       </c>
       <c r="N4" t="n">
         <v>1188.056785720851</v>
       </c>
       <c r="O4" t="n">
-        <v>1461.208415798624</v>
+        <v>1461.208415798623</v>
       </c>
       <c r="P4" t="n">
-        <v>1671.41614150354</v>
+        <v>1671.416141503539</v>
       </c>
       <c r="Q4" t="n">
-        <v>1733.517994704578</v>
+        <v>1733.517994704577</v>
       </c>
       <c r="R4" t="n">
         <v>1635.190938163087</v>
@@ -4519,19 +4519,19 @@
         <v>1217.637875978211</v>
       </c>
       <c r="U4" t="n">
-        <v>928.524701866533</v>
+        <v>928.5247018665325</v>
       </c>
       <c r="V4" t="n">
-        <v>673.8402136606461</v>
+        <v>673.8402136606456</v>
       </c>
       <c r="W4" t="n">
-        <v>384.4230436236855</v>
+        <v>385.9032124237264</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4334927256681</v>
+        <v>385.9032124237264</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.34165401109355</v>
+        <v>385.9032124237264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003178</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107103</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>282.0423703961108</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572855</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875252</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285688</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285688</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080693</v>
+        <v>979.2965659530259</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910857</v>
+        <v>568.3106611634184</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,7 +5227,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854706</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,55 +5416,55 @@
         <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277361</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277361</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298258</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5738,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>577.862038843392</v>
       </c>
       <c r="C22" t="n">
-        <v>344.917417812164</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998282</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998282</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998282</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,10 +5923,10 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6172,25 +6172,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,10 +6418,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
         <v>1280.33868158239</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>107.675939435162</v>
+        <v>107.6759394351631</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.95435072788678</v>
+        <v>80.95435072788899</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.465367112040951</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.4937330246659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864787923</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393091</v>
+        <v>127.7255247667968</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823345</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1422875.59686272</v>
+        <v>1422875.596862721</v>
       </c>
     </row>
     <row r="6">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1186172.826266607</v>
+        <v>1186172.826266606</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992233</v>
+        <v>135540.2139992239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.196525982</v>
+        <v>184268.1965259818</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488819</v>
+        <v>32719.39465488831</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363185</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17652.50451063901</v>
+        <v>17652.50451063903</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488693</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488697</v>
@@ -26451,13 +26451,13 @@
         <v>19157.89151488699</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.80602990603</v>
+        <v>97942.80602990599</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1301768.136807152</v>
+        <v>-1302232.433599176</v>
       </c>
       <c r="C6" t="n">
-        <v>-333828.2215837614</v>
+        <v>-333828.221583762</v>
       </c>
       <c r="D6" t="n">
         <v>-198288.0075845381</v>
       </c>
       <c r="E6" t="n">
-        <v>-437702.023883056</v>
+        <v>-437736.7618084918</v>
       </c>
       <c r="F6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="G6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="H6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="I6" t="n">
-        <v>-141749.7253624342</v>
+        <v>-141749.7253624341</v>
       </c>
       <c r="J6" t="n">
-        <v>-306590.2038947844</v>
+        <v>-306590.2038947842</v>
       </c>
       <c r="K6" t="n">
-        <v>-155041.4020236906</v>
+        <v>-155041.4020236907</v>
       </c>
       <c r="L6" t="n">
-        <v>-122322.0073688023</v>
+        <v>-122322.0073688024</v>
       </c>
       <c r="M6" t="n">
         <v>-207377.0353043143</v>
@@ -26558,7 +26558,7 @@
         <v>-141749.7253624342</v>
       </c>
       <c r="O6" t="n">
-        <v>-122322.0073688023</v>
+        <v>-122322.0073688024</v>
       </c>
       <c r="P6" t="n">
         <v>-122322.0073688024</v>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203969</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483912</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386694</v>
+        <v>704.2706751386688</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483912</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449067</v>
+        <v>103.7423436449071</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386694</v>
+        <v>704.2706751386688</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636233</v>
+        <v>127.1307802636237</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386693</v>
+        <v>704.2706751386686</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636233</v>
+        <v>127.1307802636237</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386694</v>
+        <v>704.2706751386688</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636233</v>
+        <v>127.1307802636237</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303233</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781087</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369509</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227723</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333866</v>
+        <v>250.3258605297772</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.085484069124396e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.88329385209363e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862877</v>
+        <v>3.963957213862876</v>
       </c>
       <c r="H2" t="n">
-        <v>40.5958768164732</v>
+        <v>40.59587681647319</v>
       </c>
       <c r="I2" t="n">
         <v>152.8204604874487</v>
       </c>
       <c r="J2" t="n">
-        <v>336.4359135800947</v>
+        <v>336.4359135800946</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429104</v>
+        <v>504.2302224429102</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266665</v>
+        <v>625.5421780266663</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287004</v>
+        <v>696.0362021287002</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625883</v>
+        <v>707.2987955625882</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172394</v>
+        <v>667.8821960172392</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999995</v>
+        <v>570.0220022999994</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785351</v>
+        <v>428.0627845785349</v>
       </c>
       <c r="R2" t="n">
-        <v>249.0009273353142</v>
+        <v>249.0009273353141</v>
       </c>
       <c r="S2" t="n">
-        <v>90.3286750109004</v>
+        <v>90.32867501090038</v>
       </c>
       <c r="T2" t="n">
         <v>17.35222270368475</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3171165771090301</v>
+        <v>0.31711657710903</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31124,43 @@
         <v>20.48346843396564</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966862</v>
+        <v>73.02235567966861</v>
       </c>
       <c r="J3" t="n">
-        <v>200.3789253115595</v>
+        <v>200.3789253115594</v>
       </c>
       <c r="K3" t="n">
-        <v>342.4794992431031</v>
+        <v>342.479499243103</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276427</v>
+        <v>460.5059513276425</v>
       </c>
       <c r="M3" t="n">
-        <v>537.3887245368733</v>
+        <v>537.3887245368732</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253082</v>
+        <v>551.6118050253081</v>
       </c>
       <c r="O3" t="n">
-        <v>504.6170354847112</v>
+        <v>504.6170354847111</v>
       </c>
       <c r="P3" t="n">
-        <v>404.9996588001799</v>
+        <v>404.9996588001798</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587357</v>
+        <v>270.7315464587356</v>
       </c>
       <c r="R3" t="n">
         <v>131.6820977071833</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336259</v>
+        <v>39.39486322336258</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524259</v>
+        <v>8.548731830524256</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1395331637191121</v>
+        <v>0.139533163719112</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.778094742038083</v>
+        <v>1.778094742038082</v>
       </c>
       <c r="H4" t="n">
-        <v>15.80887870648406</v>
+        <v>15.80887870648405</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238163</v>
+        <v>53.47215824238162</v>
       </c>
       <c r="J4" t="n">
         <v>125.7112982620924</v>
       </c>
       <c r="K4" t="n">
-        <v>206.5822800295154</v>
+        <v>206.5822800295153</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3541946480983</v>
+        <v>264.3541946480982</v>
       </c>
       <c r="M4" t="n">
-        <v>278.7244330632969</v>
+        <v>278.7244330632968</v>
       </c>
       <c r="N4" t="n">
         <v>272.0969890247915</v>
@@ -31224,22 +31224,22 @@
         <v>251.3256095382556</v>
       </c>
       <c r="P4" t="n">
-        <v>215.0524768006786</v>
+        <v>215.0524768006785</v>
       </c>
       <c r="Q4" t="n">
         <v>148.8911878992071</v>
       </c>
       <c r="R4" t="n">
-        <v>79.94960540109413</v>
+        <v>79.94960540109412</v>
       </c>
       <c r="S4" t="n">
-        <v>30.9873420044273</v>
+        <v>30.98734200442729</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799078</v>
+        <v>7.597313897799077</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935008</v>
+        <v>0.09698698592935005</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3900090534084</v>
+        <v>155.3900090534083</v>
       </c>
       <c r="K2" t="n">
-        <v>284.1403713979298</v>
+        <v>284.1403713979297</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566793</v>
+        <v>389.7757630566791</v>
       </c>
       <c r="M2" t="n">
-        <v>465.6899689014277</v>
+        <v>465.6899689014275</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659974</v>
+        <v>477.8857319659973</v>
       </c>
       <c r="O2" t="n">
-        <v>437.7839845955526</v>
+        <v>437.7839845955524</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447299</v>
+        <v>338.7890065447298</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040856</v>
+        <v>205.7570947040855</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118205</v>
+        <v>33.41538952118199</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.54129864489278</v>
+        <v>73.54129864489272</v>
       </c>
       <c r="K3" t="n">
-        <v>204.6380602687441</v>
+        <v>204.638060268744</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477685</v>
+        <v>321.9515715477684</v>
       </c>
       <c r="M3" t="n">
-        <v>395.254690614855</v>
+        <v>395.2546906148548</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419749</v>
+        <v>420.2700929419748</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402668</v>
+        <v>362.0207910402667</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7011908210117</v>
+        <v>378.7011908210126</v>
       </c>
       <c r="Q3" t="n">
-        <v>340.8270601085633</v>
+        <v>340.8270601085632</v>
       </c>
       <c r="R3" t="n">
-        <v>31.52426355454021</v>
+        <v>31.52426355454018</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541967</v>
+        <v>32.35211814541964</v>
       </c>
       <c r="K4" t="n">
         <v>184.3127882036325</v>
       </c>
       <c r="L4" t="n">
-        <v>291.9442199084144</v>
+        <v>291.9442199084143</v>
       </c>
       <c r="M4" t="n">
-        <v>318.3083100251375</v>
+        <v>318.3083100251374</v>
       </c>
       <c r="N4" t="n">
-        <v>316.2291614040201</v>
+        <v>316.22916140402</v>
       </c>
       <c r="O4" t="n">
         <v>275.9107374522953</v>
       </c>
       <c r="P4" t="n">
-        <v>212.3310360655721</v>
+        <v>212.331036065572</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72914464751271</v>
+        <v>62.72914464751268</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36291,10 +36291,10 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
